--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hien Nguyen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45284966-E092-4A1F-A8DD-302CDFF0B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAFCBD2-3DA0-4BA9-A1EE-40F17B51A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9940BD93-8C87-4357-AC8B-94248120522C}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -403,6 +403,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +730,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +834,7 @@
       <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="3"/>
@@ -921,10 +931,10 @@
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="8"/>
@@ -933,7 +943,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
@@ -943,7 +953,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
@@ -953,7 +963,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
@@ -963,7 +973,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -971,7 +981,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -979,7 +989,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -987,10 +997,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
@@ -1001,8 +1011,8 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
         <v>53</v>
@@ -1011,8 +1021,8 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
         <v>54</v>
@@ -1021,8 +1031,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
         <v>55</v>
@@ -1031,8 +1041,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
         <v>56</v>
@@ -1041,8 +1051,8 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
         <v>57</v>
@@ -1051,7 +1061,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1059,7 +1069,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="8" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1079,8 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="8"/>
@@ -1083,8 +1093,8 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
         <v>49</v>
@@ -1093,8 +1103,8 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
         <v>50</v>
@@ -1103,8 +1113,8 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
         <v>51</v>
@@ -1113,8 +1123,8 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -1125,8 +1135,8 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="9" t="s">
         <v>35</v>
       </c>
@@ -1135,7 +1145,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="8"/>
@@ -1143,8 +1153,8 @@
     </row>
     <row r="38" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -1157,8 +1167,8 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="9" t="s">
         <v>37</v>
       </c>
@@ -1167,8 +1177,8 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="9" t="s">
         <v>59</v>
       </c>
@@ -1177,8 +1187,8 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="9" t="s">
         <v>60</v>
       </c>
@@ -1187,8 +1197,8 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="9" t="s">
         <v>61</v>
       </c>
@@ -1197,8 +1207,8 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -1209,8 +1219,8 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="9" t="s">
         <v>39</v>
       </c>
@@ -1219,16 +1229,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="9"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="8"/>
@@ -1237,31 +1247,31 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -1273,7 +1283,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="8" t="s">
         <v>31</v>
       </c>
@@ -1307,7 +1317,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -1319,7 +1329,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
-      <c r="B56" s="8"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="8" t="s">
         <v>48</v>
       </c>
@@ -1384,10 +1394,20 @@
       <c r="F63" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="13">
+    <mergeCell ref="B23:B49"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="A16:A63"/>
     <mergeCell ref="A2:A12"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="B16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
